--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -79790,7 +79790,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79819,6 +79819,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>DepMap cell lines</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>HPA</t>
         </is>
       </c>
@@ -79846,6 +79851,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
@@ -79873,6 +79883,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>log₂ gene count</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>IHC score</t>
         </is>
       </c>
@@ -79902,6 +79917,12 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>3.2 [IQR: 1.8 - 5]
+range: 0.07 - 8.2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>6 [IQR: 4 - 9]
 range: 1 - 12
@@ -79935,6 +79956,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>3.2 [IQR: 1.2 - 4]
+range: 0.029 - 6.3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1.5 [IQR: 1 - 6]
 range: 1 - 9
 complete: n = 18</t>
@@ -79967,6 +79994,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>1.9 [IQR: 0.65 - 4.7]
+range: 0.18 - 8.2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>6 [IQR: 1 - 8.5]
 range: 1 - 16
 complete: n = 11</t>
@@ -79999,6 +80032,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>1.4 [IQR: 0.57 - 2.4]
+range: 0.12 - 5.3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>6 [IQR: 4 - 8]
 range: 2 - 12
 complete: n = 18</t>
@@ -80031,6 +80070,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>4.1 [IQR: 3.1 - 4.7]
+range: 1.8 - 5.7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>6 [IQR: 5.5 - 8]
 range: 1 - 8
 complete: n = 12</t>
@@ -80063,6 +80108,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>1.8 [IQR: 1.1 - 3.2]
+range: 0.12 - 5.6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2 [IQR: 1 - 4]
 range: 1 - 12
 complete: n = 16</t>
@@ -80095,6 +80146,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.29 [IQR: 0.07 - 1.1]
+range: 0 - 3.8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 1
 complete: n = 11</t>
@@ -80127,6 +80184,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>1.3 [IQR: 0.098 - 4.1]
+range: 0 - 5.3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 6
 complete: n = 23</t>
@@ -80153,6 +80216,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4 [IQR: 1 - 6]
 range: 1 - 6
 complete: n = 12</t>
@@ -80179,6 +80248,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0.014</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 4
 complete: n = 11</t>
@@ -80209,6 +80284,12 @@
 range: -2.3 - 0.79</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.38 [IQR: 0.029 - 1.9]
+range: 0 - 6.2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -80228,6 +80309,12 @@
 range: 0 - 2.3</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -80254,6 +80341,12 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>0.029 [IQR: 0 - 0.098]
+range: 0 - 6.3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.5 [IQR: 1 - 6.5]
 range: 1 - 12
@@ -80279,6 +80372,12 @@
 range: 0 - 4.9</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0.12]
+range: 0 - 0.75</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -80305,6 +80404,12 @@
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>0.043 [IQR: 0 - 0.098]
+range: 0 - 0.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 6
@@ -80338,6 +80443,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0.4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>6 [IQR: 6 - 6.5]
 range: 6 - 8
 complete: n = 12</t>
@@ -80370,6 +80481,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>1.7 [IQR: 1.2 - 3]
+range: 0.07 - 5.1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 1
 complete: n = 11</t>
@@ -80400,6 +80517,12 @@
 range: -2.1 - 0.6</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.69 [IQR: 0.28 - 1.7]
+range: 0 - 3.6</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -80425,6 +80548,12 @@
 range: -1.8 - 0.73</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.21 [IQR: 0.07 - 1.5]
+range: 0 - 5.4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -80450,6 +80579,12 @@
 range: -1.5 - 0.89</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.07 [IQR: 0.014 - 0.43]
+range: 0 - 1.2</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -80476,6 +80611,12 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>0.07 [IQR: 0 - 0.18]
+range: 0 - 0.6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 4.5]
 range: 1 - 9
@@ -80509,6 +80650,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.11 [IQR: 0.043 - 0.25]
+range: 0 - 1.2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 6
 complete: n = 11</t>
@@ -80535,6 +80682,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0.043 [IQR: 0 - 0.23]
+range: 0 - 4.7</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>4 [IQR: 1 - 6]
 range: 1 - 12
 complete: n = 12</t>
@@ -80559,6 +80712,12 @@
 range: 0 - 6.5</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0.029]
+range: 0 - 0.53</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -80579,6 +80738,12 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0.057]
+range: 0 - 1.8</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 1
@@ -80610,6 +80775,12 @@
 range: -2.3 - 0.0028</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.15 [IQR: 0.029 - 0.23]
+range: 0 - 0.61</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -80635,6 +80806,12 @@
 range: -2.4 - 0.028</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0.029</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -80661,6 +80838,12 @@
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>3.3 [IQR: 0.98 - 6.5]
+range: 0.11 - 9.4</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 8]
 range: 1 - 12
@@ -80692,6 +80875,12 @@
 range: -2.3 - 0.84</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0.043]
+range: 0 - 0.3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -80718,6 +80907,12 @@
         </is>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>0.82 [IQR: 0.59 - 1.1]
+range: 0.25 - 2.4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>1 [IQR: 1 - 1]
 range: 1 - 1
@@ -80749,6 +80944,12 @@
 range: -1.7 - 1.4</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.014 [IQR: 0 - 0.43]
+range: 0 - 5.4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -80775,6 +80976,12 @@
         </is>
       </c>
       <c r="E35" t="inlineStr">
+        <is>
+          <t>0.084 [IQR: 0.029 - 0.2]
+range: 0 - 5.1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>8 [IQR: 5.5 - 8]
 range: 1 - 12
@@ -80808,6 +81015,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>2.1 [IQR: 0.59 - 4.3]
+range: 0.014 - 8.6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>6 [IQR: 2.5 - 7]
 range: 1 - 12
 complete: n = 11</t>
@@ -80840,6 +81053,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>6.6 [IQR: 5.7 - 7.5]
+range: 4.1 - 8.4</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>8 [IQR: 1 - 12]
 range: 1 - 16
 complete: n = 32</t>
@@ -80872,6 +81091,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>1.2 [IQR: 0.45 - 2.7]
+range: 0 - 7.1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>12 [IQR: 12 - 14]
 range: 4 - 16
 complete: n = 11</t>
@@ -80904,6 +81129,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>7.2 [IQR: 6.9 - 7.8]
+range: 4.5 - 8.2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>9 [IQR: 6.5 - 11]
 range: 4 - 16
 complete: n = 14</t>
@@ -80936,6 +81167,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>0.42 [IQR: 0.084 - 0.89]
+range: 0 - 7.2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>2 [IQR: 1 - 8.2]
 range: 1 - 16
 complete: n = 30</t>
@@ -80968,6 +81205,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>8 [IQR: 7.3 - 8.6]
+range: 0.41 - 9.9</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>5 [IQR: 1.2 - 12]
 range: 1 - 16
 complete: n = 26</t>
@@ -81000,6 +81243,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>5 [IQR: 4 - 5.9]
+range: 1.3 - 8</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>2 [IQR: 1 - 8]
 range: 1 - 12
 complete: n = 25</t>
@@ -81030,6 +81279,12 @@
 range: 0.079 - 1.7</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.6 [IQR: 5.1 - 6.4]
+range: 3.7 - 7.6</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -81055,6 +81310,12 @@
 range: -2.4 - 0.78</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.39 [IQR: 0.07 - 0.96]
+range: 0 - 5.1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -81081,6 +81342,12 @@
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>2.4 [IQR: 0.19 - 3.7]
+range: 0 - 5.6</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>8 [IQR: 4.8 - 12]
 range: 1 - 16
@@ -81114,6 +81381,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>0.07 [IQR: 0 - 0.12]
+range: 0 - 5.8</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 5]
 range: 1 - 12
 complete: n = 19</t>
@@ -81146,6 +81419,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>6.1 [IQR: 5.9 - 6.4]
+range: 4.4 - 7.4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>1 [IQR: 1 - 4]
 range: 1 - 8
 complete: n = 11</t>
@@ -81174,6 +81453,12 @@
         <is>
           <t>-0.0079 [IQR: -0.32 - 0.22]
 range: -1.2 - 1.2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.93 [IQR: 0.084 - 2.6]
+range: 0 - 5.5</t>
         </is>
       </c>
     </row>

--- a/report/tables.xlsx
+++ b/report/tables.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Permutation variable importance of the Random Forest model of consensus molecular classes of urothelial cancers. The Random Forest model was developed in the TCGA BLCA cohort with expression values of genes coding for FGFR, FGF, and FGFBP proteins as the sole explanatory factors. Permutation importance was computed as differences of errors of the genuine model and models, in which the explanatory variables were re-shuffled at random.</t>
+          <t>Importance of explanatory variables for the Elastic Net and Random Forest models of consensus molecular classes of urothelial cancers estimated by the SHAP algorithm. Contribution of the FGFR-, FGF-, and FGFBP-coding genes to prediction of consensus molecular classes was assessed by mean absolute values of SHAP metrics (Shapley additive explanations). The table is available as a supplementary Excel file.</t>
         </is>
       </c>
     </row>
@@ -45241,7 +45241,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45250,469 +45250,6103 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Varaible</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Permutation importance</t>
+          <t>Consensus class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gene symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Importance, mean absolute SHAP</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CD44</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.11</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>0.0061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TGFBR3</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.079</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DCN</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.071</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>FGF7</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.063</t>
-        </is>
+      <c r="D5">
+        <v>0.047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TNFAIP6</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.051</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FGFBP1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.044</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.0077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GPC1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.04</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.0076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FGFR1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.039</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.0068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FGFR3</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.027</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FGF5</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.024</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.0097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FGF14</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.022</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.0067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FGF10</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.021</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FGFBP3</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.018</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FGF2</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.018</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.0068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SDC1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.017</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SDC2</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.017</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FGFR4</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.017</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.034</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FGF18</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.015</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.013</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.012</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.016</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANOS1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.012</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FGF9</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.011</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.022</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HSPG2</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.011</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PTX3</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.0088</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.025</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FGF1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.0087</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GPC3</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.008</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.0071</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FGFRL1</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.0073</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.017</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FGF17</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.0058</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FGFR2</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.0056</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.015</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.0053</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.0066</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FGF13</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.0047</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.021</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GPC4</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.0043</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.022</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FGFBP2</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.0042</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.0098</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FGF11</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.004</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.021</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FGF12</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.004</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0.017</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SDC4</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.0029</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0.0091</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FIBP</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.0021</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0.039</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FGF22</t>
+          <t>Elastic Net</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.0017</t>
-        </is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0.0063</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>0.0063</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>0.0069</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>0.0062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>FGF23</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0.00081</t>
-        </is>
+      <c r="D53">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>0.0094</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>0.0048</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>0.0051</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>0.0051</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>0.0086</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>0.0055</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>0.008800000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>0.0048</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>0.0097</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>0.008800000000000001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>0.008200000000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>0.0098</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>0.008500000000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>0.008399999999999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>0.0098</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>0.008500000000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>0.0097</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>0.0094</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>0.009599999999999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>0.0091</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D147">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D148">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D149">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D150">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D151">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D152">
+        <v>0.007900000000000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Elastic Net</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D153">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D154">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D155">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D156">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D157">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D158">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D159">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D160">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D162">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D163">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D164">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D165">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D166">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D167">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D168">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D169">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D170">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>0.0094</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D172">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D173">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D174">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>0.0049</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>0.0057</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D189">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D190">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LumP</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D191">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D192">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D193">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D194">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D195">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D196">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D197">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D198">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D199">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D200">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D201">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D202">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D203">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D204">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D205">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D206">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D207">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D208">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D209">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D210">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D211">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D212">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D213">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D214">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D215">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D216">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D217">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D218">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D219">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D220">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D221">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D222">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D223">
+        <v>0.0026</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D224">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D225">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D226">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D227">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D228">
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>LumU</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D229">
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D230">
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D231">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D232">
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D233">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D234">
+        <v>0.0063</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D235">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D236">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D237">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D238">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D239">
+        <v>0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D240">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D241">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D242">
+        <v>0.00095</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D243">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D244">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D245">
+        <v>0.0026</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D246">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D247">
+        <v>0.0023</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D248">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D249">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D250">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D251">
+        <v>0.00098</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D252">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D253">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D254">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D255">
+        <v>0.0047</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D256">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D257">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D258">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D259">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D260">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D261">
+        <v>0.0069</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D262">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D263">
+        <v>0.0051</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D264">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D265">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D266">
+        <v>0.00087</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Stroma-rich</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D267">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>FGF1</t>
+        </is>
+      </c>
+      <c r="D268">
+        <v>0.0067</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>FGF2</t>
+        </is>
+      </c>
+      <c r="D269">
+        <v>0.0026</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FGF5</t>
+        </is>
+      </c>
+      <c r="D270">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>FGF7</t>
+        </is>
+      </c>
+      <c r="D271">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>FGF9</t>
+        </is>
+      </c>
+      <c r="D272">
+        <v>0.007900000000000001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>FGF10</t>
+        </is>
+      </c>
+      <c r="D273">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>FGF11</t>
+        </is>
+      </c>
+      <c r="D274">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>FGF12</t>
+        </is>
+      </c>
+      <c r="D275">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>FGF13</t>
+        </is>
+      </c>
+      <c r="D276">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>FGF14</t>
+        </is>
+      </c>
+      <c r="D277">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>FGF17</t>
+        </is>
+      </c>
+      <c r="D278">
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FGF18</t>
+        </is>
+      </c>
+      <c r="D279">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>FGF22</t>
+        </is>
+      </c>
+      <c r="D280">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>FGF23</t>
+        </is>
+      </c>
+      <c r="D281">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>FGFR1</t>
+        </is>
+      </c>
+      <c r="D282">
+        <v>0.0083</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>FGFR2</t>
+        </is>
+      </c>
+      <c r="D283">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>FGFR3</t>
+        </is>
+      </c>
+      <c r="D284">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>FGFR4</t>
+        </is>
+      </c>
+      <c r="D285">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>FGFRL1</t>
+        </is>
+      </c>
+      <c r="D286">
+        <v>0.0016</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>TGFBR3</t>
+        </is>
+      </c>
+      <c r="D287">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>FGFBP1</t>
+        </is>
+      </c>
+      <c r="D288">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>FGFBP2</t>
+        </is>
+      </c>
+      <c r="D289">
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>FGFBP3</t>
+        </is>
+      </c>
+      <c r="D290">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="D291">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>KLB</t>
+        </is>
+      </c>
+      <c r="D292">
+        <v>0.0039</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>PTX3</t>
+        </is>
+      </c>
+      <c r="D293">
+        <v>0.0048</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SDC1</t>
+        </is>
+      </c>
+      <c r="D294">
+        <v>0.0061</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+      <c r="D295">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+      <c r="D296">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>DCN</t>
+        </is>
+      </c>
+      <c r="D297">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CD44</t>
+        </is>
+      </c>
+      <c r="D298">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+      <c r="D299">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+      <c r="D300">
+        <v>0.0058</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+      <c r="D301">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+      <c r="D302">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>TNFAIP6</t>
+        </is>
+      </c>
+      <c r="D303">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>FIBP</t>
+        </is>
+      </c>
+      <c r="D304">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Ba/Sq</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ANOS1</t>
+        </is>
+      </c>
+      <c r="D305">
+        <v>0.016</v>
       </c>
     </row>
   </sheetData>
